--- a/finance/基金/实践/景顺长城新兴成长混合.xlsx
+++ b/finance/基金/实践/景顺长城新兴成长混合.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>基金情况</t>
   </si>
@@ -51,6 +51,9 @@
     <t>净值</t>
   </si>
   <si>
+    <t>确认金额</t>
+  </si>
+  <si>
     <t>买入</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>定投买入</t>
+  </si>
+  <si>
+    <t>手续费12.7</t>
   </si>
   <si>
     <t>卖出（份）</t>
@@ -93,11 +99,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="20">
@@ -109,6 +115,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +236,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -135,119 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,37 +268,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,67 +394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,36 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,12 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,37 +462,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,17 +507,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,25 +546,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +579,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,115 +597,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -713,10 +719,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1073,13 +1079,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E55"/>
+  <dimension ref="A2:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="3" max="3" width="12.625"/>
@@ -1111,7 +1117,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1126,6 +1132,9 @@
       </c>
       <c r="E9" t="s">
         <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1133,7 +1142,7 @@
         <v>43036</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>100</v>
@@ -1148,7 +1157,7 @@
         <v>43081</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>100</v>
@@ -1163,7 +1172,7 @@
         <v>43110</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>100</v>
@@ -1178,7 +1187,7 @@
         <v>43117</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>100</v>
@@ -1193,7 +1202,7 @@
         <v>43119</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>100</v>
@@ -1208,7 +1217,7 @@
         <v>43124</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>100</v>
@@ -1221,7 +1230,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>600</v>
@@ -1237,7 +1246,7 @@
         <v>43140</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4">
         <f>D17*E17</f>
@@ -1253,7 +1262,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>70.39</v>
@@ -1268,7 +1277,7 @@
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -1279,7 +1288,7 @@
         <v>43166</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
         <v>-400</v>
@@ -1290,7 +1299,7 @@
         <v>43199</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4">
         <v>-400</v>
@@ -1301,7 +1310,7 @@
         <v>43227</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4">
         <v>-400</v>
@@ -1312,7 +1321,7 @@
         <v>43258</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4">
         <v>-400</v>
@@ -1323,7 +1332,7 @@
         <v>43279</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>-400</v>
@@ -1334,7 +1343,7 @@
         <v>43290</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="4">
         <v>-400</v>
@@ -1345,7 +1354,7 @@
         <v>43319</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4">
         <v>-400</v>
@@ -1356,7 +1365,7 @@
         <v>43350</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="4">
         <v>-400</v>
@@ -1367,7 +1376,7 @@
         <v>43354</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4">
         <v>-300</v>
@@ -1378,7 +1387,7 @@
         <v>43380</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4">
         <v>-400</v>
@@ -1389,7 +1398,7 @@
         <v>43381</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
         <v>-300</v>
@@ -1400,7 +1409,7 @@
         <v>43384</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="4">
         <v>-400</v>
@@ -1411,7 +1420,7 @@
         <v>43391</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="4">
         <v>-300</v>
@@ -1422,7 +1431,7 @@
         <v>43399</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="4">
         <v>-300</v>
@@ -1433,7 +1442,7 @@
         <v>43411</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="4">
         <v>-400</v>
@@ -1444,7 +1453,7 @@
         <v>43424</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="4">
         <v>-300</v>
@@ -1455,7 +1464,7 @@
         <v>43441</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="4">
         <v>-400</v>
@@ -1466,7 +1475,7 @@
         <v>43454</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="4">
         <v>-500</v>
@@ -1477,7 +1486,7 @@
         <v>43472</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4">
         <v>-400</v>
@@ -1488,7 +1497,7 @@
         <v>43531</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" s="4">
         <v>-400</v>
@@ -1499,85 +1508,119 @@
         <v>43563</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" s="4">
         <v>-400</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:7">
       <c r="A44" s="3">
-        <v>43577</v>
+        <v>43591</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
       </c>
       <c r="C44" s="4">
-        <v>10900</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="4"/>
+        <v>3074</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1.537</v>
+      </c>
+      <c r="F44">
+        <v>3061.3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3">
+        <v>43592</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="4">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3">
+        <v>43607</v>
+      </c>
+      <c r="C46" s="4">
+        <v>7654</v>
+      </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
+    <row r="48" spans="3:3">
       <c r="C48" s="4"/>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3"/>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="49" spans="3:3">
       <c r="C49" s="4"/>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3"/>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
       <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="3:3">
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3"/>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
       <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="4">
         <f>SUM(C23:C43)</f>
         <v>-8000</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D54" s="4">
         <v>-8200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>22</v>
       </c>
-      <c r="C55">
-        <f>XIRR(C23:C44,A23:A44)</f>
-        <v>0.672187134898836</v>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <f>XIRR(C23:C46,A23:A46)</f>
+        <v>0.46657796669513</v>
       </c>
     </row>
   </sheetData>
